--- a/data/Instances/InstancesS/outputS-1.xlsx
+++ b/data/Instances/InstancesS/outputS-1.xlsx
@@ -438,24 +438,24 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>5</t>
@@ -468,77 +468,77 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
@@ -578,12 +578,12 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
@@ -598,162 +598,204 @@
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>55</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>58</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>59</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>63</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1</v>
+      </c>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="n">
         <v>1</v>
       </c>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
       <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
+      <c r="AM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1</v>
+      </c>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
+      <c r="AR2" t="n">
+        <v>1</v>
+      </c>
       <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
       <c r="AX2" t="inlineStr"/>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -764,32 +806,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
@@ -804,41 +842,33 @@
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX3" t="inlineStr"/>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>1</v>
       </c>
@@ -847,51 +877,55 @@
         <v>1</v>
       </c>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1</v>
-      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="n">
         <v>1</v>
       </c>
-      <c r="Y4" t="inlineStr"/>
+      <c r="Y4" t="n">
+        <v>1</v>
+      </c>
       <c r="Z4" t="n">
         <v>1</v>
       </c>
       <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
+      <c r="AB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1</v>
+      </c>
       <c r="AK4" t="n">
         <v>1</v>
       </c>
@@ -902,24 +936,22 @@
       <c r="AN4" t="n">
         <v>1</v>
       </c>
-      <c r="AO4" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX4" t="inlineStr"/>
+      <c r="AU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="n">
+        <v>1</v>
+      </c>
       <c r="AY4" t="n">
         <v>1</v>
       </c>
@@ -927,7 +959,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -938,12 +970,8 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -956,7 +984,9 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
+      <c r="X5" t="n">
+        <v>1</v>
+      </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
@@ -971,16 +1001,12 @@
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="inlineStr"/>
@@ -1003,9 +1029,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -1039,17 +1063,13 @@
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX6" t="inlineStr"/>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -1062,9 +1082,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
@@ -1082,16 +1100,16 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
+      <c r="X7" t="n">
+        <v>1</v>
+      </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
@@ -1100,9 +1118,7 @@
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
@@ -1118,16 +1134,14 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -1145,16 +1159,16 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+      <c r="X8" t="n">
+        <v>1</v>
+      </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
@@ -1163,9 +1177,7 @@
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
@@ -1181,16 +1193,14 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
@@ -1208,29 +1218,25 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
@@ -1246,7 +1252,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -1260,7 +1266,9 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
@@ -1279,7 +1287,9 @@
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
+      <c r="AF10" t="n">
+        <v>1</v>
+      </c>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
@@ -1298,21 +1308,21 @@
       <c r="AV10" t="inlineStr"/>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
+      <c r="AY10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
@@ -1330,16 +1340,16 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
+      <c r="X11" t="n">
+        <v>1</v>
+      </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
@@ -1348,9 +1358,7 @@
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
@@ -1366,22 +1374,18 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1395,14 +1399,14 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
+      <c r="X12" t="n">
+        <v>1</v>
+      </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
@@ -1423,15 +1427,13 @@
       <c r="AU12" t="inlineStr"/>
       <c r="AV12" t="inlineStr"/>
       <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX12" t="inlineStr"/>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -1442,9 +1444,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -1455,12 +1455,12 @@
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
-      <c r="U13" t="n">
-        <v>1</v>
-      </c>
+      <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
+      <c r="X13" t="n">
+        <v>1</v>
+      </c>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
@@ -1475,9 +1475,7 @@
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="inlineStr"/>
@@ -1488,15 +1486,13 @@
       <c r="AU13" t="inlineStr"/>
       <c r="AV13" t="inlineStr"/>
       <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX13" t="inlineStr"/>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -1507,9 +1503,7 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -1531,16 +1525,16 @@
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
+      <c r="AF14" t="n">
+        <v>1</v>
+      </c>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr"/>
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="inlineStr"/>
@@ -1554,12 +1548,14 @@
       <c r="AV14" t="inlineStr"/>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
+      <c r="AY14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -1570,9 +1566,7 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -1583,19 +1577,17 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="n">
-        <v>1</v>
-      </c>
+      <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
+      <c r="X15" t="n">
+        <v>1</v>
+      </c>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
@@ -1610,9 +1602,7 @@
       <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
       <c r="AT15" t="inlineStr"/>
       <c r="AU15" t="inlineStr"/>
@@ -1624,7 +1614,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -1635,9 +1625,7 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
@@ -1648,12 +1636,12 @@
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="n">
-        <v>1</v>
-      </c>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
+      <c r="X16" t="n">
+        <v>1</v>
+      </c>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
@@ -1668,16 +1656,12 @@
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
       <c r="AT16" t="inlineStr"/>
       <c r="AU16" t="inlineStr"/>
@@ -1689,108 +1673,66 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>1</v>
-      </c>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="n">
-        <v>1</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1</v>
-      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="n">
         <v>1</v>
       </c>
       <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="inlineStr"/>
       <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
       <c r="AT17" t="inlineStr"/>
       <c r="AU17" t="inlineStr"/>
       <c r="AV17" t="inlineStr"/>
-      <c r="AW17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW17" t="inlineStr"/>
+      <c r="AX17" t="inlineStr"/>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -1801,9 +1743,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -1817,14 +1757,14 @@
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
+      <c r="X18" t="n">
+        <v>1</v>
+      </c>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
@@ -1834,30 +1774,24 @@
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
       <c r="AT18" t="inlineStr"/>
       <c r="AU18" t="inlineStr"/>
       <c r="AV18" t="inlineStr"/>
       <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX18" t="inlineStr"/>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -1868,12 +1802,8 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
@@ -1891,9 +1821,7 @@
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
@@ -1903,9 +1831,7 @@
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
-      <c r="AM19" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="inlineStr"/>
@@ -1922,7 +1848,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -1933,9 +1859,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1957,7 +1881,9 @@
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
+      <c r="AF20" t="n">
+        <v>1</v>
+      </c>
       <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr"/>
       <c r="AI20" t="inlineStr"/>
@@ -1969,80 +1895,58 @@
       <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
+      <c r="AR20" t="n">
+        <v>1</v>
+      </c>
       <c r="AS20" t="inlineStr"/>
       <c r="AT20" t="inlineStr"/>
       <c r="AU20" t="inlineStr"/>
       <c r="AV20" t="inlineStr"/>
       <c r="AW20" t="inlineStr"/>
-      <c r="AX20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY20" t="inlineStr"/>
+      <c r="AX20" t="inlineStr"/>
+      <c r="AY20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
-      <c r="V21" t="n">
-        <v>1</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1</v>
-      </c>
-      <c r="X21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>1</v>
-      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="n">
+        <v>1</v>
+      </c>
       <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
       <c r="AI21" t="inlineStr"/>
@@ -2050,44 +1954,32 @@
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="inlineStr"/>
       <c r="AM21" t="inlineStr"/>
-      <c r="AN21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
-      <c r="AT21" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT21" t="inlineStr"/>
       <c r="AU21" t="inlineStr"/>
       <c r="AV21" t="inlineStr"/>
-      <c r="AW21" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW21" t="inlineStr"/>
       <c r="AX21" t="inlineStr"/>
-      <c r="AY21" t="inlineStr"/>
+      <c r="AY21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
@@ -2112,33 +2004,33 @@
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="n">
+        <v>1</v>
+      </c>
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="inlineStr"/>
-      <c r="AN22" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
+      <c r="AR22" t="n">
+        <v>1</v>
+      </c>
       <c r="AS22" t="inlineStr"/>
       <c r="AT22" t="inlineStr"/>
       <c r="AU22" t="inlineStr"/>
       <c r="AV22" t="inlineStr"/>
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="inlineStr"/>
-      <c r="AY22" t="inlineStr"/>
+      <c r="AY22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2150,9 +2042,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -2170,29 +2060,25 @@
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
+      <c r="X23" t="n">
+        <v>1</v>
+      </c>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
       <c r="AM23" t="inlineStr"/>
-      <c r="AN23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
@@ -2219,12 +2105,8 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
@@ -2242,9 +2124,7 @@
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
@@ -2259,14 +2139,18 @@
       <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="inlineStr"/>
+      <c r="AR24" t="n">
+        <v>1</v>
+      </c>
       <c r="AS24" t="inlineStr"/>
       <c r="AT24" t="inlineStr"/>
       <c r="AU24" t="inlineStr"/>
       <c r="AV24" t="inlineStr"/>
       <c r="AW24" t="inlineStr"/>
       <c r="AX24" t="inlineStr"/>
-      <c r="AY24" t="inlineStr"/>
+      <c r="AY24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -2276,17 +2160,13 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
@@ -2300,7 +2180,9 @@
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
+      <c r="X25" t="n">
+        <v>1</v>
+      </c>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
@@ -2326,9 +2208,7 @@
       <c r="AU25" t="inlineStr"/>
       <c r="AV25" t="inlineStr"/>
       <c r="AW25" t="inlineStr"/>
-      <c r="AX25" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX25" t="inlineStr"/>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -2337,99 +2217,59 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1</v>
-      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
-        <v>1</v>
-      </c>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="n">
-        <v>1</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1</v>
-      </c>
-      <c r="X26" t="n">
-        <v>1</v>
-      </c>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="n">
+        <v>1</v>
+      </c>
       <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="inlineStr"/>
       <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="n">
+        <v>1</v>
+      </c>
       <c r="AS26" t="inlineStr"/>
       <c r="AT26" t="inlineStr"/>
       <c r="AU26" t="inlineStr"/>
       <c r="AV26" t="inlineStr"/>
-      <c r="AW26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW26" t="inlineStr"/>
+      <c r="AX26" t="inlineStr"/>
       <c r="AY26" t="n">
         <v>1</v>
       </c>
@@ -2448,9 +2288,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -2464,7 +2302,9 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
+      <c r="X27" t="n">
+        <v>1</v>
+      </c>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
@@ -2479,24 +2319,18 @@
       <c r="AJ27" t="inlineStr"/>
       <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
       <c r="AT27" t="inlineStr"/>
       <c r="AU27" t="inlineStr"/>
       <c r="AV27" t="inlineStr"/>
       <c r="AW27" t="inlineStr"/>
-      <c r="AX27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX27" t="inlineStr"/>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -2505,67 +2339,39 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>1</v>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1</v>
-      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
-        <v>1</v>
-      </c>
+      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="n">
-        <v>1</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1</v>
-      </c>
-      <c r="X28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="n">
+        <v>1</v>
+      </c>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="inlineStr"/>
       <c r="AH28" t="inlineStr"/>
       <c r="AI28" t="inlineStr"/>
@@ -2573,30 +2379,18 @@
       <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="inlineStr"/>
       <c r="AM28" t="inlineStr"/>
-      <c r="AN28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
       <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ28" t="inlineStr"/>
       <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr"/>
       <c r="AT28" t="inlineStr"/>
       <c r="AU28" t="inlineStr"/>
       <c r="AV28" t="inlineStr"/>
-      <c r="AW28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW28" t="inlineStr"/>
+      <c r="AX28" t="inlineStr"/>
+      <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -2612,9 +2406,7 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
@@ -2628,7 +2420,9 @@
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
+      <c r="X29" t="n">
+        <v>1</v>
+      </c>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
@@ -2643,30 +2437,24 @@
       <c r="AJ29" t="inlineStr"/>
       <c r="AK29" t="inlineStr"/>
       <c r="AL29" t="inlineStr"/>
-      <c r="AM29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr"/>
       <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="inlineStr"/>
       <c r="AT29" t="inlineStr"/>
       <c r="AU29" t="inlineStr"/>
       <c r="AV29" t="inlineStr"/>
       <c r="AW29" t="inlineStr"/>
-      <c r="AX29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX29" t="inlineStr"/>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -2677,9 +2465,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
@@ -2693,7 +2479,9 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
+      <c r="X30" t="n">
+        <v>1</v>
+      </c>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
@@ -2708,9 +2496,7 @@
       <c r="AJ30" t="inlineStr"/>
       <c r="AK30" t="inlineStr"/>
       <c r="AL30" t="inlineStr"/>
-      <c r="AM30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="inlineStr"/>
@@ -2721,15 +2507,13 @@
       <c r="AU30" t="inlineStr"/>
       <c r="AV30" t="inlineStr"/>
       <c r="AW30" t="inlineStr"/>
-      <c r="AX30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX30" t="inlineStr"/>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -2737,57 +2521,97 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
+      <c r="X31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1</v>
+      </c>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
+      <c r="AG31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1</v>
+      </c>
       <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr"/>
+      <c r="AJ31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1</v>
+      </c>
       <c r="AL31" t="inlineStr"/>
       <c r="AM31" t="n">
         <v>1</v>
       </c>
-      <c r="AN31" t="inlineStr"/>
+      <c r="AN31" t="n">
+        <v>1</v>
+      </c>
       <c r="AO31" t="inlineStr"/>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
+      <c r="AR31" t="n">
+        <v>1</v>
+      </c>
       <c r="AS31" t="inlineStr"/>
-      <c r="AT31" t="inlineStr"/>
-      <c r="AU31" t="inlineStr"/>
-      <c r="AV31" t="inlineStr"/>
+      <c r="AT31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>1</v>
+      </c>
       <c r="AW31" t="inlineStr"/>
-      <c r="AX31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY31" t="inlineStr"/>
+      <c r="AX31" t="inlineStr"/>
+      <c r="AY31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -2803,12 +2627,8 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" t="n">
-        <v>1</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
@@ -2836,9 +2656,7 @@
       <c r="AJ32" t="inlineStr"/>
       <c r="AK32" t="inlineStr"/>
       <c r="AL32" t="inlineStr"/>
-      <c r="AM32" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr"/>
       <c r="AO32" t="inlineStr"/>
       <c r="AP32" t="inlineStr"/>
@@ -2849,10 +2667,10 @@
       <c r="AU32" t="inlineStr"/>
       <c r="AV32" t="inlineStr"/>
       <c r="AW32" t="inlineStr"/>
-      <c r="AX32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY32" t="inlineStr"/>
+      <c r="AX32" t="inlineStr"/>
+      <c r="AY32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2868,9 +2686,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>1</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
@@ -2881,12 +2697,12 @@
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="n">
-        <v>1</v>
-      </c>
+      <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
+      <c r="X33" t="n">
+        <v>1</v>
+      </c>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
@@ -2901,30 +2717,24 @@
       <c r="AJ33" t="inlineStr"/>
       <c r="AK33" t="inlineStr"/>
       <c r="AL33" t="inlineStr"/>
-      <c r="AM33" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr"/>
       <c r="AO33" t="inlineStr"/>
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
       <c r="AT33" t="inlineStr"/>
       <c r="AU33" t="inlineStr"/>
       <c r="AV33" t="inlineStr"/>
       <c r="AW33" t="inlineStr"/>
-      <c r="AX33" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX33" t="inlineStr"/>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -2949,38 +2759,30 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
+      <c r="X34" t="n">
+        <v>1</v>
+      </c>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="inlineStr"/>
       <c r="AH34" t="inlineStr"/>
       <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
       <c r="AL34" t="inlineStr"/>
       <c r="AM34" t="inlineStr"/>
-      <c r="AN34" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN34" t="inlineStr"/>
       <c r="AO34" t="inlineStr"/>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS34" t="inlineStr"/>
       <c r="AT34" t="inlineStr"/>
       <c r="AU34" t="inlineStr"/>
       <c r="AV34" t="inlineStr"/>
@@ -2991,102 +2793,66 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1</v>
-      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
-        <v>1</v>
-      </c>
+      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="n">
-        <v>1</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1</v>
-      </c>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="inlineStr"/>
       <c r="AH35" t="inlineStr"/>
       <c r="AI35" t="inlineStr"/>
       <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK35" t="inlineStr"/>
       <c r="AL35" t="inlineStr"/>
       <c r="AM35" t="inlineStr"/>
-      <c r="AN35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" t="inlineStr"/>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
-      <c r="AT35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AU35" t="inlineStr"/>
       <c r="AV35" t="inlineStr"/>
-      <c r="AW35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW35" t="inlineStr"/>
       <c r="AX35" t="inlineStr"/>
-      <c r="AY35" t="inlineStr"/>
+      <c r="AY35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -3097,9 +2863,7 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>1</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
@@ -3110,12 +2874,12 @@
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="n">
-        <v>1</v>
-      </c>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
+      <c r="X36" t="n">
+        <v>1</v>
+      </c>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
@@ -3130,9 +2894,7 @@
       <c r="AJ36" t="inlineStr"/>
       <c r="AK36" t="inlineStr"/>
       <c r="AL36" t="inlineStr"/>
-      <c r="AM36" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr"/>
       <c r="AO36" t="inlineStr"/>
       <c r="AP36" t="inlineStr"/>
@@ -3143,125 +2905,83 @@
       <c r="AU36" t="inlineStr"/>
       <c r="AV36" t="inlineStr"/>
       <c r="AW36" t="inlineStr"/>
-      <c r="AX36" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX36" t="inlineStr"/>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1</v>
-      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
-        <v>1</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1</v>
-      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
-        <v>1</v>
-      </c>
+      <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="n">
-        <v>1</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1</v>
-      </c>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="n">
+        <v>1</v>
+      </c>
       <c r="AG37" t="inlineStr"/>
       <c r="AH37" t="inlineStr"/>
       <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ37" t="inlineStr"/>
       <c r="AK37" t="inlineStr"/>
       <c r="AL37" t="inlineStr"/>
-      <c r="AM37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" t="inlineStr"/>
       <c r="AP37" t="inlineStr"/>
-      <c r="AQ37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR37" t="inlineStr"/>
-      <c r="AS37" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ37" t="inlineStr"/>
+      <c r="AR37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS37" t="inlineStr"/>
       <c r="AT37" t="inlineStr"/>
       <c r="AU37" t="inlineStr"/>
       <c r="AV37" t="inlineStr"/>
-      <c r="AW37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr"/>
+      <c r="AX37" t="inlineStr"/>
+      <c r="AY37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="n">
-        <v>1</v>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
@@ -3286,38 +3006,38 @@
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
-      <c r="AE38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="n">
+        <v>1</v>
+      </c>
       <c r="AG38" t="inlineStr"/>
       <c r="AH38" t="inlineStr"/>
       <c r="AI38" t="inlineStr"/>
       <c r="AJ38" t="inlineStr"/>
-      <c r="AK38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK38" t="inlineStr"/>
       <c r="AL38" t="inlineStr"/>
       <c r="AM38" t="inlineStr"/>
-      <c r="AN38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN38" t="inlineStr"/>
       <c r="AO38" t="inlineStr"/>
       <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="inlineStr"/>
-      <c r="AR38" t="inlineStr"/>
+      <c r="AR38" t="n">
+        <v>1</v>
+      </c>
       <c r="AS38" t="inlineStr"/>
       <c r="AT38" t="inlineStr"/>
       <c r="AU38" t="inlineStr"/>
       <c r="AV38" t="inlineStr"/>
       <c r="AW38" t="inlineStr"/>
       <c r="AX38" t="inlineStr"/>
-      <c r="AY38" t="inlineStr"/>
+      <c r="AY38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -3328,12 +3048,8 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
@@ -3354,7 +3070,9 @@
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="inlineStr"/>
+      <c r="AF39" t="n">
+        <v>1</v>
+      </c>
       <c r="AG39" t="inlineStr"/>
       <c r="AH39" t="inlineStr"/>
       <c r="AI39" t="inlineStr"/>
@@ -3374,15 +3092,15 @@
       <c r="AU39" t="inlineStr"/>
       <c r="AV39" t="inlineStr"/>
       <c r="AW39" t="inlineStr"/>
-      <c r="AX39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY39" t="inlineStr"/>
+      <c r="AX39" t="inlineStr"/>
+      <c r="AY39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -3393,9 +3111,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
@@ -3409,14 +3125,14 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
+      <c r="X40" t="n">
+        <v>1</v>
+      </c>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="inlineStr"/>
@@ -3426,30 +3142,24 @@
       <c r="AJ40" t="inlineStr"/>
       <c r="AK40" t="inlineStr"/>
       <c r="AL40" t="inlineStr"/>
-      <c r="AM40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr"/>
       <c r="AO40" t="inlineStr"/>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
-      <c r="AR40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr"/>
       <c r="AT40" t="inlineStr"/>
       <c r="AU40" t="inlineStr"/>
       <c r="AV40" t="inlineStr"/>
       <c r="AW40" t="inlineStr"/>
-      <c r="AX40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX40" t="inlineStr"/>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -3460,9 +3170,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
@@ -3481,21 +3189,19 @@
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="inlineStr"/>
-      <c r="AF41" t="inlineStr"/>
+      <c r="AF41" t="n">
+        <v>1</v>
+      </c>
       <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="inlineStr"/>
       <c r="AI41" t="inlineStr"/>
       <c r="AJ41" t="inlineStr"/>
       <c r="AK41" t="inlineStr"/>
       <c r="AL41" t="inlineStr"/>
-      <c r="AM41" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr"/>
       <c r="AP41" t="inlineStr"/>
@@ -3508,84 +3214,84 @@
       <c r="AU41" t="inlineStr"/>
       <c r="AV41" t="inlineStr"/>
       <c r="AW41" t="inlineStr"/>
-      <c r="AX41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY41" t="inlineStr"/>
+      <c r="AX41" t="inlineStr"/>
+      <c r="AY41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>1</v>
-      </c>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1</v>
-      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
-        <v>1</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1</v>
-      </c>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="n">
-        <v>1</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1</v>
-      </c>
-      <c r="X42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="n">
+        <v>1</v>
+      </c>
       <c r="Y42" t="n">
         <v>1</v>
       </c>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
+      <c r="Z42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1</v>
+      </c>
       <c r="AB42" t="n">
         <v>1</v>
       </c>
       <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="n">
+        <v>1</v>
+      </c>
       <c r="AH42" t="inlineStr"/>
-      <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="inlineStr"/>
+      <c r="AI42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1</v>
+      </c>
       <c r="AK42" t="inlineStr"/>
       <c r="AL42" t="inlineStr"/>
       <c r="AM42" t="n">
@@ -3598,19 +3304,15 @@
         <v>1</v>
       </c>
       <c r="AP42" t="inlineStr"/>
-      <c r="AQ42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ42" t="inlineStr"/>
       <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr"/>
-      <c r="AT42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT42" t="inlineStr"/>
       <c r="AU42" t="inlineStr"/>
-      <c r="AV42" t="inlineStr"/>
-      <c r="AW42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW42" t="inlineStr"/>
       <c r="AX42" t="n">
         <v>1</v>
       </c>
@@ -3621,37 +3323,29 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="n">
-        <v>1</v>
-      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="n">
-        <v>1</v>
-      </c>
+      <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
@@ -3659,12 +3353,12 @@
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr"/>
       <c r="AE43" t="inlineStr"/>
-      <c r="AF43" t="inlineStr"/>
+      <c r="AF43" t="n">
+        <v>1</v>
+      </c>
       <c r="AG43" t="inlineStr"/>
       <c r="AH43" t="inlineStr"/>
       <c r="AI43" t="inlineStr"/>
@@ -3676,170 +3370,168 @@
       <c r="AO43" t="inlineStr"/>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>
-      <c r="AR43" t="inlineStr"/>
+      <c r="AR43" t="n">
+        <v>1</v>
+      </c>
       <c r="AS43" t="inlineStr"/>
       <c r="AT43" t="inlineStr"/>
       <c r="AU43" t="inlineStr"/>
       <c r="AV43" t="inlineStr"/>
       <c r="AW43" t="inlineStr"/>
       <c r="AX43" t="inlineStr"/>
-      <c r="AY43" t="inlineStr"/>
+      <c r="AY43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
+      <c r="T44" t="n">
+        <v>1</v>
+      </c>
       <c r="U44" t="n">
         <v>1</v>
       </c>
       <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
+      <c r="W44" t="n">
+        <v>1</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>1</v>
+      </c>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="inlineStr"/>
-      <c r="AG44" t="inlineStr"/>
-      <c r="AH44" t="inlineStr"/>
-      <c r="AI44" t="inlineStr"/>
-      <c r="AJ44" t="inlineStr"/>
+      <c r="AG44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1</v>
+      </c>
       <c r="AK44" t="inlineStr"/>
       <c r="AL44" t="inlineStr"/>
       <c r="AM44" t="n">
         <v>1</v>
       </c>
-      <c r="AN44" t="inlineStr"/>
+      <c r="AN44" t="n">
+        <v>1</v>
+      </c>
       <c r="AO44" t="inlineStr"/>
       <c r="AP44" t="inlineStr"/>
       <c r="AQ44" t="inlineStr"/>
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
-      <c r="AT44" t="inlineStr"/>
+      <c r="AT44" t="n">
+        <v>1</v>
+      </c>
       <c r="AU44" t="inlineStr"/>
-      <c r="AV44" t="inlineStr"/>
-      <c r="AW44" t="inlineStr"/>
-      <c r="AX44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY44" t="inlineStr"/>
+      <c r="AV44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX44" t="inlineStr"/>
+      <c r="AY44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>1</v>
-      </c>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="n">
-        <v>1</v>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
-        <v>1</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1</v>
-      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
-        <v>1</v>
-      </c>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
-      <c r="V45" t="n">
-        <v>1</v>
-      </c>
-      <c r="W45" t="n">
-        <v>1</v>
-      </c>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="inlineStr"/>
       <c r="AH45" t="inlineStr"/>
       <c r="AI45" t="inlineStr"/>
       <c r="AJ45" t="inlineStr"/>
       <c r="AK45" t="inlineStr"/>
       <c r="AL45" t="inlineStr"/>
-      <c r="AM45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM45" t="inlineStr"/>
+      <c r="AN45" t="inlineStr"/>
+      <c r="AO45" t="inlineStr"/>
       <c r="AP45" t="inlineStr"/>
-      <c r="AQ45" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ45" t="inlineStr"/>
       <c r="AR45" t="n">
         <v>1</v>
       </c>
@@ -3847,18 +3539,16 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AU45" t="inlineStr"/>
       <c r="AV45" t="inlineStr"/>
-      <c r="AW45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr"/>
+      <c r="AX45" t="inlineStr"/>
+      <c r="AY45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -3869,9 +3559,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
@@ -3893,7 +3581,9 @@
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="inlineStr"/>
-      <c r="AF46" t="inlineStr"/>
+      <c r="AF46" t="n">
+        <v>1</v>
+      </c>
       <c r="AG46" t="inlineStr"/>
       <c r="AH46" t="inlineStr"/>
       <c r="AI46" t="inlineStr"/>
@@ -3912,12 +3602,14 @@
       <c r="AV46" t="inlineStr"/>
       <c r="AW46" t="inlineStr"/>
       <c r="AX46" t="inlineStr"/>
-      <c r="AY46" t="inlineStr"/>
+      <c r="AY46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -3928,9 +3620,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>1</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
@@ -3944,14 +3634,14 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
+      <c r="X47" t="n">
+        <v>1</v>
+      </c>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="inlineStr"/>
@@ -3972,15 +3662,13 @@
       <c r="AU47" t="inlineStr"/>
       <c r="AV47" t="inlineStr"/>
       <c r="AW47" t="inlineStr"/>
-      <c r="AX47" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX47" t="inlineStr"/>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -3991,9 +3679,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
@@ -4022,9 +3708,7 @@
       <c r="AJ48" t="inlineStr"/>
       <c r="AK48" t="inlineStr"/>
       <c r="AL48" t="inlineStr"/>
-      <c r="AM48" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="inlineStr"/>
       <c r="AO48" t="inlineStr"/>
       <c r="AP48" t="inlineStr"/>
@@ -4036,12 +3720,14 @@
       <c r="AV48" t="inlineStr"/>
       <c r="AW48" t="inlineStr"/>
       <c r="AX48" t="inlineStr"/>
-      <c r="AY48" t="inlineStr"/>
+      <c r="AY48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -4052,12 +3738,8 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
@@ -4078,16 +3760,16 @@
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr"/>
       <c r="AE49" t="inlineStr"/>
-      <c r="AF49" t="inlineStr"/>
+      <c r="AF49" t="n">
+        <v>1</v>
+      </c>
       <c r="AG49" t="inlineStr"/>
       <c r="AH49" t="inlineStr"/>
       <c r="AI49" t="inlineStr"/>
       <c r="AJ49" t="inlineStr"/>
       <c r="AK49" t="inlineStr"/>
       <c r="AL49" t="inlineStr"/>
-      <c r="AM49" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM49" t="inlineStr"/>
       <c r="AN49" t="inlineStr"/>
       <c r="AO49" t="inlineStr"/>
       <c r="AP49" t="inlineStr"/>
@@ -4100,24 +3782,22 @@
       <c r="AU49" t="inlineStr"/>
       <c r="AV49" t="inlineStr"/>
       <c r="AW49" t="inlineStr"/>
-      <c r="AX49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY49" t="inlineStr"/>
+      <c r="AX49" t="inlineStr"/>
+      <c r="AY49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="n">
-        <v>1</v>
-      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
@@ -4135,16 +3815,16 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
+      <c r="X50" t="n">
+        <v>1</v>
+      </c>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr"/>
-      <c r="AE50" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="inlineStr"/>
       <c r="AH50" t="inlineStr"/>
@@ -4153,9 +3833,7 @@
       <c r="AK50" t="inlineStr"/>
       <c r="AL50" t="inlineStr"/>
       <c r="AM50" t="inlineStr"/>
-      <c r="AN50" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN50" t="inlineStr"/>
       <c r="AO50" t="inlineStr"/>
       <c r="AP50" t="inlineStr"/>
       <c r="AQ50" t="inlineStr"/>
@@ -4171,16 +3849,14 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="n">
-        <v>1</v>
-      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
@@ -4205,29 +3881,21 @@
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr"/>
-      <c r="AE51" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE51" t="inlineStr"/>
       <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="inlineStr"/>
       <c r="AH51" t="inlineStr"/>
       <c r="AI51" t="inlineStr"/>
       <c r="AJ51" t="inlineStr"/>
-      <c r="AK51" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK51" t="inlineStr"/>
       <c r="AL51" t="inlineStr"/>
       <c r="AM51" t="inlineStr"/>
-      <c r="AN51" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN51" t="inlineStr"/>
       <c r="AO51" t="inlineStr"/>
       <c r="AP51" t="inlineStr"/>
       <c r="AQ51" t="inlineStr"/>
       <c r="AR51" t="inlineStr"/>
-      <c r="AS51" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS51" t="inlineStr"/>
       <c r="AT51" t="inlineStr"/>
       <c r="AU51" t="inlineStr"/>
       <c r="AV51" t="inlineStr"/>
@@ -4238,73 +3906,41 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>1</v>
-      </c>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="n">
-        <v>1</v>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1</v>
-      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
-        <v>1</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1</v>
-      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
-        <v>1</v>
-      </c>
-      <c r="T52" t="n">
-        <v>1</v>
-      </c>
-      <c r="U52" t="n">
-        <v>1</v>
-      </c>
-      <c r="V52" t="n">
-        <v>1</v>
-      </c>
-      <c r="W52" t="n">
-        <v>1</v>
-      </c>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="n">
-        <v>1</v>
-      </c>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="inlineStr"/>
@@ -4312,100 +3948,58 @@
       <c r="AJ52" t="inlineStr"/>
       <c r="AK52" t="inlineStr"/>
       <c r="AL52" t="inlineStr"/>
-      <c r="AM52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM52" t="inlineStr"/>
+      <c r="AN52" t="inlineStr"/>
+      <c r="AO52" t="inlineStr"/>
       <c r="AP52" t="inlineStr"/>
-      <c r="AQ52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ52" t="inlineStr"/>
       <c r="AR52" t="inlineStr"/>
       <c r="AS52" t="inlineStr"/>
-      <c r="AT52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT52" t="inlineStr"/>
       <c r="AU52" t="inlineStr"/>
       <c r="AV52" t="inlineStr"/>
-      <c r="AW52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW52" t="inlineStr"/>
       <c r="AX52" t="inlineStr"/>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1</v>
-      </c>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1</v>
-      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="n">
-        <v>1</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1</v>
-      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
-        <v>1</v>
-      </c>
+      <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="n">
-        <v>1</v>
-      </c>
-      <c r="W53" t="n">
-        <v>1</v>
-      </c>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="n">
-        <v>1</v>
-      </c>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
-      <c r="AB53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr"/>
-      <c r="AE53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE53" t="inlineStr"/>
       <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="inlineStr"/>
       <c r="AH53" t="inlineStr"/>
@@ -4413,102 +4007,58 @@
       <c r="AJ53" t="inlineStr"/>
       <c r="AK53" t="inlineStr"/>
       <c r="AL53" t="inlineStr"/>
-      <c r="AM53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="inlineStr"/>
+      <c r="AO53" t="inlineStr"/>
       <c r="AP53" t="inlineStr"/>
-      <c r="AQ53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ53" t="inlineStr"/>
       <c r="AR53" t="inlineStr"/>
       <c r="AS53" t="inlineStr"/>
       <c r="AT53" t="inlineStr"/>
       <c r="AU53" t="inlineStr"/>
       <c r="AV53" t="inlineStr"/>
-      <c r="AW53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW53" t="inlineStr"/>
+      <c r="AX53" t="inlineStr"/>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1</v>
-      </c>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="n">
-        <v>1</v>
-      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>1</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
-        <v>1</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1</v>
-      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
-        <v>1</v>
-      </c>
+      <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="n">
-        <v>1</v>
-      </c>
-      <c r="V54" t="n">
-        <v>1</v>
-      </c>
-      <c r="W54" t="n">
-        <v>1</v>
-      </c>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="n">
-        <v>1</v>
-      </c>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
       <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="inlineStr"/>
       <c r="AH54" t="inlineStr"/>
@@ -4516,224 +4066,132 @@
       <c r="AJ54" t="inlineStr"/>
       <c r="AK54" t="inlineStr"/>
       <c r="AL54" t="inlineStr"/>
-      <c r="AM54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr"/>
+      <c r="AO54" t="inlineStr"/>
       <c r="AP54" t="inlineStr"/>
-      <c r="AQ54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ54" t="inlineStr"/>
       <c r="AR54" t="inlineStr"/>
       <c r="AS54" t="inlineStr"/>
       <c r="AT54" t="inlineStr"/>
       <c r="AU54" t="inlineStr"/>
       <c r="AV54" t="inlineStr"/>
-      <c r="AW54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW54" t="inlineStr"/>
       <c r="AX54" t="inlineStr"/>
-      <c r="AY54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>1</v>
-      </c>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="n">
-        <v>1</v>
-      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1</v>
-      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
-        <v>1</v>
-      </c>
-      <c r="O55" t="n">
-        <v>1</v>
-      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
-      <c r="V55" t="n">
-        <v>1</v>
-      </c>
-      <c r="W55" t="n">
-        <v>1</v>
-      </c>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="n">
-        <v>1</v>
-      </c>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
-      <c r="AC55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="inlineStr"/>
       <c r="AH55" t="inlineStr"/>
       <c r="AI55" t="inlineStr"/>
       <c r="AJ55" t="inlineStr"/>
       <c r="AK55" t="inlineStr"/>
       <c r="AL55" t="inlineStr"/>
-      <c r="AM55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM55" t="inlineStr"/>
       <c r="AN55" t="inlineStr"/>
-      <c r="AO55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO55" t="inlineStr"/>
       <c r="AP55" t="inlineStr"/>
-      <c r="AQ55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ55" t="inlineStr"/>
       <c r="AR55" t="inlineStr"/>
       <c r="AS55" t="inlineStr"/>
       <c r="AT55" t="inlineStr"/>
       <c r="AU55" t="inlineStr"/>
       <c r="AV55" t="inlineStr"/>
-      <c r="AW55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW55" t="inlineStr"/>
+      <c r="AX55" t="inlineStr"/>
+      <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>1</v>
-      </c>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1</v>
-      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>1</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="n">
-        <v>1</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1</v>
-      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
-        <v>1</v>
-      </c>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="n">
-        <v>1</v>
-      </c>
-      <c r="V56" t="n">
-        <v>1</v>
-      </c>
-      <c r="W56" t="n">
-        <v>1</v>
-      </c>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
-      <c r="AC56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="n">
+        <v>1</v>
+      </c>
       <c r="AG56" t="inlineStr"/>
       <c r="AH56" t="inlineStr"/>
       <c r="AI56" t="inlineStr"/>
       <c r="AJ56" t="inlineStr"/>
       <c r="AK56" t="inlineStr"/>
       <c r="AL56" t="inlineStr"/>
-      <c r="AM56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM56" t="inlineStr"/>
+      <c r="AN56" t="inlineStr"/>
+      <c r="AO56" t="inlineStr"/>
       <c r="AP56" t="inlineStr"/>
-      <c r="AQ56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR56" t="inlineStr"/>
+      <c r="AQ56" t="inlineStr"/>
+      <c r="AR56" t="n">
+        <v>1</v>
+      </c>
       <c r="AS56" t="inlineStr"/>
       <c r="AT56" t="inlineStr"/>
       <c r="AU56" t="inlineStr"/>
@@ -4747,57 +4205,49 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" t="inlineStr"/>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>1</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
-        <v>1</v>
-      </c>
-      <c r="O57" t="n">
-        <v>1</v>
-      </c>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
       <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
-        <v>1</v>
-      </c>
-      <c r="T57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="n">
+        <v>1</v>
+      </c>
       <c r="U57" t="n">
         <v>1</v>
       </c>
-      <c r="V57" t="n">
-        <v>1</v>
-      </c>
-      <c r="W57" t="n">
-        <v>1</v>
-      </c>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="n">
-        <v>1</v>
-      </c>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
@@ -4807,37 +4257,43 @@
       <c r="AD57" t="n">
         <v>1</v>
       </c>
-      <c r="AE57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF57" t="inlineStr"/>
-      <c r="AG57" t="inlineStr"/>
-      <c r="AH57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1</v>
+      </c>
       <c r="AI57" t="inlineStr"/>
-      <c r="AJ57" t="inlineStr"/>
-      <c r="AK57" t="inlineStr"/>
+      <c r="AJ57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1</v>
+      </c>
       <c r="AL57" t="inlineStr"/>
-      <c r="AM57" t="inlineStr"/>
+      <c r="AM57" t="n">
+        <v>1</v>
+      </c>
       <c r="AN57" t="n">
         <v>1</v>
       </c>
-      <c r="AO57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO57" t="inlineStr"/>
       <c r="AP57" t="inlineStr"/>
-      <c r="AQ57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR57" t="inlineStr"/>
+      <c r="AQ57" t="inlineStr"/>
+      <c r="AR57" t="n">
+        <v>1</v>
+      </c>
       <c r="AS57" t="inlineStr"/>
-      <c r="AT57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT57" t="inlineStr"/>
       <c r="AU57" t="inlineStr"/>
-      <c r="AV57" t="inlineStr"/>
-      <c r="AW57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW57" t="inlineStr"/>
       <c r="AX57" t="inlineStr"/>
       <c r="AY57" t="n">
         <v>1</v>
@@ -4882,22 +4338,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4906,13 +4362,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4921,13 +4377,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4936,7 +4392,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -4947,11 +4403,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
@@ -4962,77 +4418,77 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -5041,13 +4497,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -5056,28 +4512,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -5086,13 +4542,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -5101,28 +4557,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -5131,58 +4587,58 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -5191,7 +4647,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
@@ -5202,11 +4658,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
@@ -5217,11 +4673,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25">
@@ -5236,7 +4692,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
@@ -5247,11 +4703,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -5266,7 +4722,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
@@ -5277,11 +4733,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>63</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -5296,13 +4752,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5311,22 +4767,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
@@ -5337,11 +4793,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
@@ -5356,43 +4812,43 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5401,28 +4857,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5431,28 +4887,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5461,28 +4917,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -5491,73 +4947,73 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5566,108 +5022,108 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -5677,37 +5133,37 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>67</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -5716,7 +5172,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -5758,7 +5214,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5767,43 +5223,43 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.04140686055734114</v>
+        <v>0.9841074037226921</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9682380872471632</v>
+        <v>0.5191921055143544</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.983312204522982</v>
+        <v>0.6913295725255024</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5812,7 +5268,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7738525698841272</v>
+        <v>0.5993649661604367</v>
       </c>
     </row>
     <row r="6">
@@ -5823,11 +5279,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2909414414774907</v>
+        <v>0.9678994496527669</v>
       </c>
     </row>
     <row r="7">
@@ -5842,13 +5298,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8260859201317781</v>
+        <v>0.008368997028615321</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -5857,58 +5313,58 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.00130842982566004</v>
+        <v>0.7120541951635774</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5032618011442618</v>
+        <v>0.96919045202135</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0246068860924451</v>
+        <v>0.564843969124303</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.7259491997764188</v>
+        <v>0.8714337785496544</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -5917,28 +5373,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.02834994172717789</v>
+        <v>0.005068446155531758</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.9050425432567133</v>
+        <v>0.9696279892854505</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -5947,13 +5403,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.06131335980428379</v>
+        <v>0.993867734180763</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -5962,58 +5418,58 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.02372621639829289</v>
+        <v>0.9694377520731768</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.9990844331076233</v>
+        <v>0.5076358485544215</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.972751326606809</v>
+        <v>0.001802191223214467</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.9716793505999574</v>
+        <v>0.7262144531506518</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -6022,13 +5478,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.04802256836333046</v>
+        <v>0.8156997508935075</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -6037,28 +5493,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.9755312102481517</v>
+        <v>0.01639159134898988</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.7033352627477751</v>
+        <v>0.02193853680041444</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -6067,7 +5523,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.04673826279642795</v>
+        <v>0.9945615168864778</v>
       </c>
     </row>
     <row r="23">
@@ -6082,7 +5538,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.2487367609999742</v>
+        <v>0.8071070737078001</v>
       </c>
     </row>
     <row r="24">
@@ -6093,11 +5549,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.707558597540777</v>
+        <v>0.02432001173536575</v>
       </c>
     </row>
     <row r="25">
@@ -6112,7 +5568,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.2517755090062313</v>
+        <v>0.04094967934540196</v>
       </c>
     </row>
     <row r="26">
@@ -6127,7 +5583,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.7016872209803506</v>
+        <v>0.02388069925203537</v>
       </c>
     </row>
     <row r="27">
@@ -6142,7 +5598,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.9749007057917027</v>
+        <v>0.4274536278837142</v>
       </c>
     </row>
     <row r="28">
@@ -6157,7 +5613,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.7088095741805012</v>
+        <v>0.6760988597113408</v>
       </c>
     </row>
     <row r="29">
@@ -6168,17 +5624,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.4942088773225654</v>
+        <v>0.5148972476358651</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6187,22 +5643,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.1832294817337745</v>
+        <v>0.7352036348626995</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.0335050401108049</v>
+        <v>0.994732511836648</v>
       </c>
     </row>
     <row r="32">
@@ -6213,11 +5669,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.4254906225420129</v>
+        <v>0.3515371545868793</v>
       </c>
     </row>
     <row r="33">
@@ -6232,13 +5688,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.9836257342466493</v>
+        <v>0.01187842777254899</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6247,13 +5703,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.9965637011972599</v>
+        <v>0.4447943337967378</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6262,43 +5718,43 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.9296376225022009</v>
+        <v>0.5488970928667464</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.8282215387353626</v>
+        <v>0.04135187347461097</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.8610906258999675</v>
+        <v>0.3683176839006875</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -6307,43 +5763,43 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.9994043813620005</v>
+        <v>0.912558063978852</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.2731909275794039</v>
+        <v>0.02773776835562811</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.01967042588118693</v>
+        <v>0.3608609119620109</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -6352,13 +5808,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.3444832278397265</v>
+        <v>0.997027605846518</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6367,13 +5823,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.975936266508586</v>
+        <v>0.9956433811964206</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6382,43 +5838,43 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.02031257461275966</v>
+        <v>0.6367272366313413</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.6683047092578742</v>
+        <v>0.4375983480144141</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.8823392659164033</v>
+        <v>0.9854242854559198</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6427,13 +5883,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.6567773341323293</v>
+        <v>0.2760106045602032</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6442,13 +5898,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.7674580898104734</v>
+        <v>0.421632327104366</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6457,13 +5913,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.9933572457612092</v>
+        <v>0.0323794336194865</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6472,37 +5928,37 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.02824486829352067</v>
+        <v>0.7632217161225254</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.4279688984987192</v>
+        <v>0.5699531104697784</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.3764404452967447</v>
+        <v>0.02418368493907291</v>
       </c>
     </row>
   </sheetData>
